--- a/docments/DB設計.xlsx
+++ b/docments/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\Documents\eclipse_workspace\python_20200415\TwitterAPIStudy\docments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EDBD7-5F60-4DC7-9A69-6580F733FE99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFFE6BA-87C7-4BD5-A3B1-C9E688C409D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DDL" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="64">
   <si>
     <t>トレンド情報　→　ツイート情報</t>
     <rPh sb="4" eb="6">
@@ -346,12 +347,24 @@
     <t xml:space="preserve">primary key(joiny, id)); </t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ハッシュタグフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュタグID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n_hashtagflg</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,13 +386,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -394,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -403,6 +437,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -722,9 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46895ADB-0A83-428E-8D2B-02ED025D5599}">
   <dimension ref="B2:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -959,6 +1003,13 @@
       </c>
     </row>
     <row r="9" spans="2:28">
+      <c r="C9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="O9" t="s">
         <v>27</v>
       </c>
@@ -967,6 +1018,15 @@
       </c>
     </row>
     <row r="10" spans="2:28">
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O10" t="s">
         <v>26</v>
       </c>
@@ -975,9 +1035,12 @@
       </c>
     </row>
     <row r="15" spans="2:28">
-      <c r="H15" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="T15" t="s">
         <v>28</v>
       </c>
@@ -986,12 +1049,14 @@
       </c>
     </row>
     <row r="16" spans="2:28">
-      <c r="H16" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J16" s="6"/>
       <c r="T16" t="s">
         <v>12</v>
       </c>
@@ -1006,16 +1071,16 @@
       </c>
     </row>
     <row r="17" spans="7:28">
-      <c r="G17" t="s">
+      <c r="G17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="S17" t="s">
@@ -1044,10 +1109,12 @@
       </c>
     </row>
     <row r="18" spans="7:28">
-      <c r="I18" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="T18" t="s">
@@ -1070,26 +1137,27 @@
       </c>
     </row>
     <row r="19" spans="7:28">
-      <c r="I19" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="6" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6BF05C-FEC3-47D8-BF06-9B4E2CB4BE46}">
-  <dimension ref="A2:J49"/>
+  <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -1112,12 +1180,12 @@
         <v>32</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>_xlfn.CONCAT(F4:F8)</f>
-        <v xml:space="preserve">n_trendid integer PRIMARY KEY,s_trendword text ,s_syutokuymd text ,s_syutokutime text ,n_tweetvolume integer </v>
+        <f>_xlfn.CONCAT(F4:F10)</f>
+        <v xml:space="preserve">n_trendid integer PRIMARY KEY,s_trendword text ,s_syutokuymd text ,s_syutokutime text ,n_tweetvolume integer ,n_hashtagflg integer ,n_hashtagid integer </v>
       </c>
       <c r="H2" s="2" t="str">
         <f>"create table "&amp;C2&amp;"("&amp;G2&amp;");"</f>
-        <v>create table t_trend(n_trendid integer PRIMARY KEY,s_trendword text ,s_syutokuymd text ,s_syutokutime text ,n_tweetvolume integer );</v>
+        <v>create table t_trend(n_trendid integer PRIMARY KEY,s_trendword text ,s_syutokuymd text ,s_syutokutime text ,n_tweetvolume integer ,n_hashtagflg integer ,n_hashtagid integer );</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
@@ -1168,15 +1236,15 @@
         <v>34</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D49" si="0">IF(C5&lt;&gt;"",IF(LEFT(C5,2)="n_","integer", IF(LEFT(C5,2)="s_","text", "")),"")</f>
+        <f t="shared" ref="D5:D51" si="0">IF(C5&lt;&gt;"",IF(LEFT(C5,2)="n_","integer", IF(LEFT(C5,2)="s_","text", "")),"")</f>
         <v>text</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E49" si="1">IF(A5="PK","PRIMARY KEY","")</f>
+        <f t="shared" ref="E5:E51" si="1">IF(A5="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F49" si="2">IF(AND(C5&lt;&gt;"",D5&lt;&gt;""),C5&amp;" "&amp;D5&amp;" "&amp;E5&amp;IF(C6&lt;&gt;"",",",""),"")</f>
+        <f t="shared" ref="F5:F51" si="2">IF(AND(C5&lt;&gt;"",D5&lt;&gt;""),C5&amp;" "&amp;D5&amp;" "&amp;E5&amp;IF(C6&lt;&gt;"",",",""),"")</f>
         <v>s_trendword text ,</v>
       </c>
     </row>
@@ -1237,420 +1305,426 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">n_tweetvolume integer </v>
+        <v>n_tweetvolume integer ,</v>
       </c>
     </row>
     <row r="9" spans="1:10">
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ref="D9:D10" si="3">IF(C9&lt;&gt;"",IF(LEFT(C9,2)="n_","integer", IF(LEFT(C9,2)="s_","text", "")),"")</f>
+        <v>integer</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E9:E10" si="4">IF(A9="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
-      <c r="A10" t="s">
+        <f>IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),C9&amp;" "&amp;D9&amp;" "&amp;E9&amp;IF(C12&lt;&gt;"",",",""),"")</f>
+        <v>n_hashtagflg integer ,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>integer</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>IF(AND(C10&lt;&gt;"",D10&lt;&gt;""),C10&amp;" "&amp;D10&amp;" "&amp;E10&amp;IF(C13&lt;&gt;"",",",""),"")</f>
+        <v xml:space="preserve">n_hashtagid integer </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" s="1" t="s">
+      <c r="B12"/>
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f>_xlfn.CONCAT(F12:F13)</f>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>_xlfn.CONCAT(F14:F15)</f>
         <v>n_trendid integer PRIMARY KEY,n_tweetid integer PRIMARY KEY</v>
       </c>
-      <c r="H10" s="2" t="str">
-        <f>"create table "&amp;C10&amp;"("&amp;G10&amp;");"</f>
+      <c r="H12" s="2" t="str">
+        <f>"create table "&amp;C12&amp;"("&amp;G12&amp;");"</f>
         <v>create table t_trendtweet(n_trendid integer PRIMARY KEY,n_tweetid integer PRIMARY KEY);</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>integer</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PRIMARY KEY</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>n_trendid integer PRIMARY KEY,</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>integer</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>n_trendid integer PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>integer</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PRIMARY KEY</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>n_tweetid integer PRIMARY KEY</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10">
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="30">
+      <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B15"/>
-      <c r="C15" s="1" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f>_xlfn.CONCAT(F17:F19)</f>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f>_xlfn.CONCAT(F19:F21)</f>
         <v xml:space="preserve">n_trendwordid integer PRIMARY KEY,s_trendword text ,n_count integer </v>
       </c>
-      <c r="H15" s="2" t="str">
-        <f>"create table "&amp;C15&amp;"("&amp;G15&amp;");"</f>
+      <c r="H17" s="8" t="str">
+        <f>"create table "&amp;C17&amp;"("&amp;G17&amp;");"</f>
         <v>create table t_trendword(n_trendwordid integer PRIMARY KEY,s_trendword text ,n_count integer );</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I17" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    <row r="18" spans="1:9" s="7" customFormat="1">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="D19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>integer</v>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>PRIMARY KEY</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F19" s="7" t="str">
         <f t="shared" si="2"/>
         <v>n_trendwordid integer PRIMARY KEY,</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18"/>
-      <c r="B18" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="str">
+      <c r="D20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>text</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="1" t="str">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
         <f t="shared" si="2"/>
         <v>s_trendword text ,</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19"/>
-      <c r="B19" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="1" t="str">
+      <c r="D21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>integer</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F19" s="1" t="str">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">n_count integer </v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45">
-      <c r="A21" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B21"/>
-      <c r="C21" s="1" t="s">
+      <c r="B23"/>
+      <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G21" s="2" t="str">
-        <f>_xlfn.CONCAT(F23:F29)</f>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>_xlfn.CONCAT(F25:F31)</f>
         <v xml:space="preserve">n_tweetid integer PRIMARY KEY,s_userid text ,s_tweettext text ,n_retweetvolume integer ,n_favoritevolume integer ,s_tweeturl text ,s_tweettime text </v>
       </c>
-      <c r="H21" s="2" t="str">
-        <f>"create table "&amp;C21&amp;"("&amp;G21&amp;");"</f>
+      <c r="H23" s="2" t="str">
+        <f>"create table "&amp;C23&amp;"("&amp;G23&amp;");"</f>
         <v>create table t_tweet(n_tweetid integer PRIMARY KEY,s_userid text ,s_tweettext text ,n_retweetvolume integer ,n_favoritevolume integer ,s_tweeturl text ,s_tweettime text );</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>integer</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PRIMARY KEY</v>
-      </c>
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>n_tweetid integer PRIMARY KEY,</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>integer</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>n_tweetid integer PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>text</v>
       </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="1" t="str">
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>s_userid text ,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25"/>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>text</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>s_tweettext text ,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26"/>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>integer</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>n_retweetvolume integer ,</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>integer</v>
+        <v>text</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1658,20 +1732,20 @@
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>n_favoritevolume integer ,</v>
+        <v>s_tweettext text ,</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>text</v>
+        <v>integer</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1679,474 +1753,516 @@
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>s_tweeturl text ,</v>
+        <v>n_retweetvolume integer ,</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29"/>
       <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>integer</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>n_favoritevolume integer ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>text</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>s_tweeturl text ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31"/>
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>text</v>
       </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="1" t="str">
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="1" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">s_tweettime text </v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30">
-      <c r="A31" t="s">
+    <row r="32" spans="1:9">
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B31"/>
-      <c r="C31" s="1" t="s">
+      <c r="B33"/>
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G31" s="2" t="str">
-        <f>_xlfn.CONCAT(F33:F34)</f>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>_xlfn.CONCAT(F35:F36)</f>
         <v>n_tweetid integer PRIMARY KEY,n_hashtagid integer PRIMARY KEY</v>
       </c>
-      <c r="H31" s="2" t="str">
-        <f>"create table "&amp;C31&amp;"("&amp;G31&amp;");"</f>
+      <c r="H33" s="2" t="str">
+        <f>"create table "&amp;C33&amp;"("&amp;G33&amp;");"</f>
         <v>create table t_tweethashtag(n_tweetid integer PRIMARY KEY,n_hashtagid integer PRIMARY KEY);</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>integer</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PRIMARY KEY</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>n_tweetid integer PRIMARY KEY,</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>integer</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>n_tweetid integer PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>integer</v>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PRIMARY KEY</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>n_hashtagid integer PRIMARY KEY</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
-      <c r="A36" t="s">
+    <row r="37" spans="1:9">
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="B36"/>
-      <c r="C36" s="1" t="s">
+      <c r="B38"/>
+      <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G36" s="2" t="str">
-        <f>_xlfn.CONCAT(F38:F39)</f>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f>_xlfn.CONCAT(F40:F41)</f>
         <v>n_tweetid integer PRIMARY KEY,n_linkedurlid integer PRIMARY KEY</v>
       </c>
-      <c r="H36" s="2" t="str">
-        <f>"create table "&amp;C36&amp;"("&amp;G36&amp;");"</f>
+      <c r="H38" s="2" t="str">
+        <f>"create table "&amp;C38&amp;"("&amp;G38&amp;");"</f>
         <v>create table t_tweeturl(n_tweetid integer PRIMARY KEY,n_linkedurlid integer PRIMARY KEY);</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>integer</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PRIMARY KEY</v>
-      </c>
-      <c r="F38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>n_tweetid integer PRIMARY KEY,</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>integer</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>n_tweetid integer PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
         <v>51</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="D41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>integer</v>
       </c>
-      <c r="E39" s="1" t="str">
+      <c r="E41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PRIMARY KEY</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>n_linkedurlid integer PRIMARY KEY</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" t="s">
+    <row r="42" spans="1:9">
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B41"/>
-      <c r="C41" s="1" t="s">
+      <c r="B43"/>
+      <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G41" s="2" t="str">
-        <f>_xlfn.CONCAT(F43:F44)</f>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f>_xlfn.CONCAT(F45:F46)</f>
         <v xml:space="preserve">n_hashtagid integer PRIMARY KEY,s_hashtagword text </v>
       </c>
-      <c r="H41" s="2" t="str">
-        <f>"create table "&amp;C41&amp;"("&amp;G41&amp;");"</f>
+      <c r="H43" s="2" t="str">
+        <f>"create table "&amp;C43&amp;"("&amp;G43&amp;");"</f>
         <v>create table t_hashtag(n_hashtagid integer PRIMARY KEY,s_hashtagword text );</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C42"/>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+      <c r="C44"/>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>integer</v>
       </c>
-      <c r="E43" s="1" t="str">
+      <c r="E45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PRIMARY KEY</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>n_hashtagid integer PRIMARY KEY,</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44"/>
-      <c r="B44" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46"/>
+      <c r="B46" t="s">
         <v>23</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>text</v>
       </c>
-      <c r="E44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F44" s="1" t="str">
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="1" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">s_hashtagword text </v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30">
-      <c r="A46" t="s">
+    <row r="47" spans="1:9">
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30">
+      <c r="A48" t="s">
         <v>29</v>
       </c>
-      <c r="B46"/>
-      <c r="C46" s="1" t="s">
+      <c r="B48"/>
+      <c r="C48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G46" s="2" t="str">
-        <f>_xlfn.CONCAT(F48:F49)</f>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f>_xlfn.CONCAT(F50:F51)</f>
         <v xml:space="preserve">n_linkedurlid integer PRIMARY KEY,n_linkedurl integer </v>
       </c>
-      <c r="H46" s="2" t="str">
-        <f>"create table "&amp;C46&amp;"("&amp;G46&amp;");"</f>
+      <c r="H48" s="2" t="str">
+        <f>"create table "&amp;C48&amp;"("&amp;G48&amp;");"</f>
         <v>create table t_url(n_linkedurlid integer PRIMARY KEY,n_linkedurl integer );</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C47"/>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
+      <c r="C49"/>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="1" t="str">
+      <c r="D50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>integer</v>
       </c>
-      <c r="E48" s="1" t="str">
+      <c r="E50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>PRIMARY KEY</v>
       </c>
-      <c r="F48" s="1" t="str">
+      <c r="F50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>n_linkedurlid integer PRIMARY KEY,</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49"/>
-      <c r="B49" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51"/>
+      <c r="B51" t="s">
         <v>30</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="1" t="str">
+      <c r="D51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>integer</v>
       </c>
-      <c r="E49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F49" s="1" t="str">
+      <c r="E51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" s="1" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">n_linkedurl integer </v>
       </c>
@@ -2154,5 +2270,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docments/DB設計.xlsx
+++ b/docments/DB設計.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\Documents\eclipse_workspace\python_20200415\TwitterAPIStudy\docments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFFE6BA-87C7-4BD5-A3B1-C9E688C409D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE1072B-D314-4560-BDFC-67FEBC5EEE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ER図" sheetId="2" r:id="rId2"/>
     <sheet name="DDL" sheetId="4" r:id="rId3"/>
+    <sheet name="deleteSQL" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="71">
   <si>
     <t>トレンド情報　→　ツイート情報</t>
     <rPh sb="4" eb="6">
@@ -294,10 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>n_linkedurl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>n_linkedurlid</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,6 +354,31 @@
   <si>
     <t>n_hashtagflg</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_linkedurl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete from t_trend;</t>
+  </si>
+  <si>
+    <t>delete from t_trendtweet;</t>
+  </si>
+  <si>
+    <t>delete from t_tweet;</t>
+  </si>
+  <si>
+    <t>delete from t_tweethashtag;</t>
+  </si>
+  <si>
+    <t>delete from t_tweeturl;</t>
+  </si>
+  <si>
+    <t>delete from t_hashtag;</t>
+  </si>
+  <si>
+    <t>delete from t_url;</t>
   </si>
 </sst>
 </file>
@@ -768,7 +789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46895ADB-0A83-428E-8D2B-02ED025D5599}">
   <dimension ref="B2:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -1004,10 +1027,10 @@
     </row>
     <row r="9" spans="2:28">
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5"/>
       <c r="O9" t="s">
@@ -1019,7 +1042,7 @@
     </row>
     <row r="10" spans="2:28">
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>47</v>
@@ -1102,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="AA17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="7:28">
@@ -1121,10 +1144,10 @@
         <v>7</v>
       </c>
       <c r="U18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W18" t="s">
         <v>16</v>
@@ -1133,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="AB18" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="7:28">
@@ -1157,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6BF05C-FEC3-47D8-BF06-9B4E2CB4BE46}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -1172,7 +1195,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1188,10 +1211,10 @@
         <v>create table t_trend(n_trendid integer PRIMARY KEY,s_trendword text ,s_syutokuymd text ,s_syutokutime text ,n_tweetvolume integer ,n_hashtagflg integer ,n_hashtagid integer );</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1310,10 +1333,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9:D10" si="3">IF(C9&lt;&gt;"",IF(LEFT(C9,2)="n_","integer", IF(LEFT(C9,2)="s_","text", "")),"")</f>
@@ -1330,7 +1353,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>47</v>
@@ -1368,7 +1391,7 @@
       </c>
       <c r="B12"/>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1391,7 +1414,7 @@
         <v>create table t_trendtweet(n_trendid integer PRIMARY KEY,n_tweetid integer PRIMARY KEY);</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1481,7 +1504,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1504,7 +1527,7 @@
         <v>create table t_trendword(n_trendwordid integer PRIMARY KEY,s_trendword text ,n_count integer );</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1">
@@ -1621,7 +1644,7 @@
       </c>
       <c r="B23"/>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1644,7 +1667,7 @@
         <v>create table t_tweet(n_tweetid integer PRIMARY KEY,s_userid text ,s_tweettext text ,n_retweetvolume integer ,n_favoritevolume integer ,s_tweeturl text ,s_tweettime text );</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1839,7 +1862,7 @@
       </c>
       <c r="B33"/>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1862,7 +1885,7 @@
         <v>create table t_tweethashtag(n_tweetid integer PRIMARY KEY,n_hashtagid integer PRIMARY KEY);</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1952,7 +1975,7 @@
       </c>
       <c r="B38"/>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1975,7 +1998,7 @@
         <v>create table t_tweeturl(n_tweetid integer PRIMARY KEY,n_linkedurlid integer PRIMARY KEY);</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2027,10 +2050,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2065,7 +2088,7 @@
       </c>
       <c r="B43"/>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2088,7 +2111,7 @@
         <v>create table t_hashtag(n_hashtagid integer PRIMARY KEY,s_hashtagword text );</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2176,7 +2199,7 @@
       </c>
       <c r="B48"/>
       <c r="C48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2192,14 +2215,14 @@
       </c>
       <c r="G48" s="2" t="str">
         <f>_xlfn.CONCAT(F50:F51)</f>
-        <v xml:space="preserve">n_linkedurlid integer PRIMARY KEY,n_linkedurl integer </v>
+        <v xml:space="preserve">n_linkedurlid integer PRIMARY KEY,s_linkedurl text </v>
       </c>
       <c r="H48" s="2" t="str">
         <f>"create table "&amp;C48&amp;"("&amp;G48&amp;");"</f>
-        <v>create table t_url(n_linkedurlid integer PRIMARY KEY,n_linkedurl integer );</v>
+        <v>create table t_url(n_linkedurlid integer PRIMARY KEY,s_linkedurl text );</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2228,10 +2251,10 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2252,11 +2275,11 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>integer</v>
+        <v>text</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2264,7 +2287,7 @@
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">n_linkedurl integer </v>
+        <v xml:space="preserve">s_linkedurl text </v>
       </c>
     </row>
   </sheetData>
@@ -2272,4 +2295,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7183AD2-A92D-4044-800C-C5FC7E152021}">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docments/DB設計.xlsx
+++ b/docments/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\Documents\eclipse_workspace\python_20200415\TwitterAPIStudy\docments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287A7D8-8DED-4B1B-A7C6-E5BFB7D0CC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87365542-D7A8-4941-80C8-43B710F06DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="84">
   <si>
     <t>トレンドワード</t>
     <phoneticPr fontId="1"/>
@@ -418,6 +418,59 @@
   </si>
   <si>
     <t>n_tweetvalidstrcount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感情指数</t>
+    <rPh sb="0" eb="2">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感情強度指数</t>
+    <rPh sb="0" eb="2">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効文字数</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_sentimentscore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_sentimentsmagnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n_validstrcount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_title</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -792,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46895ADB-0A83-428E-8D2B-02ED025D5599}">
-  <dimension ref="B2:AB19"/>
+  <dimension ref="B2:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1201,6 +1254,36 @@
       <c r="J19" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="AA19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="7:28">
+      <c r="AA20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="7:28">
+      <c r="AA21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="7:28">
+      <c r="AA22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1211,9 +1294,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6BF05C-FEC3-47D8-BF06-9B4E2CB4BE46}">
-  <dimension ref="A2:I58"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -1678,7 +1763,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60">
+    <row r="24" spans="1:8" ht="90">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1766,11 +1851,11 @@
         <v>text</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" ref="E27:E58" si="4">IF(A27="PK","PRIMARY KEY","")</f>
+        <f t="shared" ref="E27:E30" si="4">IF(A27="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" ref="F27:F58" si="5">IF(AND(C27&lt;&gt;"",D27&lt;&gt;""),C27&amp;" "&amp;D27&amp;" "&amp;E27&amp;IF(C28&lt;&gt;"",",",""),"")</f>
+        <f t="shared" ref="F27:F30" si="5">IF(AND(C27&lt;&gt;"",D27&lt;&gt;""),C27&amp;" "&amp;D27&amp;" "&amp;E27&amp;IF(C28&lt;&gt;"",",",""),"")</f>
         <v>s_userid text ,</v>
       </c>
     </row>
@@ -2272,15 +2357,15 @@
     </row>
     <row r="51" spans="1:8">
       <c r="D51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D51:D71" si="8">IF(C51&lt;&gt;"",IF(LEFT(C51,2)="n_","integer", IF(LEFT(C51,2)="s_","text", IF(LEFT(C51,2)="r_","real",""))),"")</f>
         <v/>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E51:E71" si="9">IF(A51="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F51:F71" si="10">IF(AND(C51&lt;&gt;"",D51&lt;&gt;""),C51&amp;" "&amp;D51&amp;" "&amp;E51&amp;IF(C52&lt;&gt;"",",",""),"")</f>
         <v/>
       </c>
     </row>
@@ -2293,24 +2378,24 @@
         <v>55</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G52" s="2" t="str">
-        <f>_xlfn.CONCAT(F54:F55)</f>
-        <v xml:space="preserve">n_linkedurlid integer PRIMARY KEY,s_linkedurl text </v>
+        <f>_xlfn.CONCAT(F54:F58)</f>
+        <v>n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,</v>
       </c>
       <c r="H52" s="2" t="str">
         <f>"create table "&amp;C52&amp;"("&amp;G52&amp;");"</f>
-        <v>create table t_url(n_linkedurlid integer PRIMARY KEY,s_linkedurl text );</v>
+        <v>create table t_url(n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,);</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2322,15 +2407,15 @@
       </c>
       <c r="C53"/>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -2345,15 +2430,15 @@
         <v>47</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>integer</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>PRIMARY KEY</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>n_linkedurlid integer PRIMARY KEY,</v>
       </c>
     </row>
@@ -2366,57 +2451,263 @@
         <v>60</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>text</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">s_linkedurl text </v>
+        <f t="shared" si="10"/>
+        <v>s_linkedurl text ,</v>
       </c>
     </row>
     <row r="56" spans="1:8">
+      <c r="B56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>real</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>r_sentimentscore real ,</v>
       </c>
     </row>
     <row r="57" spans="1:8">
+      <c r="B57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>real</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>r_sentimentsmagnitude real ,</v>
       </c>
     </row>
     <row r="58" spans="1:8">
+      <c r="B58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>integer</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>n_validstrcount integer ,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>text</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">s_title text </v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>

--- a/docments/DB設計.xlsx
+++ b/docments/DB設計.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\Documents\eclipse_workspace\python_20200415\TwitterAPIStudy\docments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87365542-D7A8-4941-80C8-43B710F06DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8324C4FF-FA52-4B7C-BEBA-600FF1DC0DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="2" r:id="rId1"/>
-    <sheet name="DDL" sheetId="4" r:id="rId2"/>
-    <sheet name="deleteSQL" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="DDL" sheetId="4" r:id="rId3"/>
+    <sheet name="deleteSQL" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="116">
   <si>
     <t>トレンドワード</t>
     <phoneticPr fontId="1"/>
@@ -471,6 +472,179 @@
   </si>
   <si>
     <t>s_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイートから形態素解析して「固有名詞」を抽出する</t>
+  </si>
+  <si>
+    <t>→単語の出現頻度を計算し、多頻度単語を抽出</t>
+  </si>
+  <si>
+    <t>　それらについて、共起確立を計算</t>
+  </si>
+  <si>
+    <t>■固有名詞テーブル</t>
+    <rPh sb="1" eb="3">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固有名詞ID</t>
+    <rPh sb="0" eb="2">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固有名詞</t>
+    <rPh sb="0" eb="2">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entities</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wikipedia_url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WikipediaURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著名度指数</t>
+    <rPh sb="0" eb="2">
+      <t>チョメイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n_wordnameid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_wordname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_wordtype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_wikipediaurl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_saliencescore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ツイート関連固有名詞テーブル</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Web関連固有名詞テーブル</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>コユウメイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_wordname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_tweetwordname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_urlwordname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">primary key(n_tweetid ,n_wordnameid); </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">primary key(n_wordnameid, n_linkedurlid); </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現回数</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete from t_wordname;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete from t_tweetwordname;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete from t_urlwordname;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -845,9 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46895ADB-0A83-428E-8D2B-02ED025D5599}">
-  <dimension ref="B2:AB22"/>
+  <dimension ref="B2:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
@@ -1179,7 +1355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="7:28">
+    <row r="17" spans="2:28">
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="7:28">
+    <row r="18" spans="2:28">
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
@@ -1245,7 +1421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="7:28">
+    <row r="19" spans="2:28">
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
@@ -1261,7 +1437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="7:28">
+    <row r="20" spans="2:28">
       <c r="AA20" s="4" t="s">
         <v>77</v>
       </c>
@@ -1269,7 +1445,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="7:28">
+    <row r="21" spans="2:28">
       <c r="AA21" s="4" t="s">
         <v>78</v>
       </c>
@@ -1277,12 +1453,153 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="7:28">
+    <row r="22" spans="2:28">
       <c r="AA22" s="4" t="s">
         <v>82</v>
       </c>
       <c r="AB22" s="4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28">
+      <c r="B25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10">
+      <c r="H34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="8:10">
+      <c r="H35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="I37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1293,11 +1610,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814CEF6-7AC1-4688-84BF-A3054AF83CD9}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6BF05C-FEC3-47D8-BF06-9B4E2CB4BE46}">
-  <dimension ref="A2:I71"/>
+  <dimension ref="A2:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1374,7 +1746,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D58" si="0">IF(C5&lt;&gt;"",IF(LEFT(C5,2)="n_","integer", IF(LEFT(C5,2)="s_","text", IF(LEFT(C5,2)="r_","real",""))),"")</f>
+        <f t="shared" ref="D5:D50" si="0">IF(C5&lt;&gt;"",IF(LEFT(C5,2)="n_","integer", IF(LEFT(C5,2)="s_","text", IF(LEFT(C5,2)="r_","real",""))),"")</f>
         <v>text</v>
       </c>
       <c r="E5" s="1" t="str">
@@ -1935,11 +2307,11 @@
         <v>text</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" ref="E31:E58" si="6">IF(A31="PK","PRIMARY KEY","")</f>
+        <f t="shared" ref="E31:E50" si="6">IF(A31="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" ref="F31:F58" si="7">IF(AND(C31&lt;&gt;"",D31&lt;&gt;""),C31&amp;" "&amp;D31&amp;" "&amp;E31&amp;IF(C32&lt;&gt;"",",",""),"")</f>
+        <f t="shared" ref="F31:F50" si="7">IF(AND(C31&lt;&gt;"",D31&lt;&gt;""),C31&amp;" "&amp;D31&amp;" "&amp;E31&amp;IF(C32&lt;&gt;"",",",""),"")</f>
         <v>s_tweeturl text ,</v>
       </c>
     </row>
@@ -2357,19 +2729,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="D51" s="1" t="str">
-        <f t="shared" ref="D51:D71" si="8">IF(C51&lt;&gt;"",IF(LEFT(C51,2)="n_","integer", IF(LEFT(C51,2)="s_","text", IF(LEFT(C51,2)="r_","real",""))),"")</f>
+        <f t="shared" ref="D51:D59" si="8">IF(C51&lt;&gt;"",IF(LEFT(C51,2)="n_","integer", IF(LEFT(C51,2)="s_","text", IF(LEFT(C51,2)="r_","real",""))),"")</f>
         <v/>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" ref="E51:E71" si="9">IF(A51="PK","PRIMARY KEY","")</f>
+        <f t="shared" ref="E51:E59" si="9">IF(A51="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" ref="F51:F71" si="10">IF(AND(C51&lt;&gt;"",D51&lt;&gt;""),C51&amp;" "&amp;D51&amp;" "&amp;E51&amp;IF(C52&lt;&gt;"",",",""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30">
+        <f t="shared" ref="F51:F59" si="10">IF(AND(C51&lt;&gt;"",D51&lt;&gt;""),C51&amp;" "&amp;D51&amp;" "&amp;E51&amp;IF(C52&lt;&gt;"",",",""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2390,12 +2762,12 @@
         <v/>
       </c>
       <c r="G52" s="2" t="str">
-        <f>_xlfn.CONCAT(F54:F58)</f>
-        <v>n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,</v>
+        <f>_xlfn.CONCAT(F54:F59)</f>
+        <v xml:space="preserve">n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,s_title text </v>
       </c>
       <c r="H52" s="2" t="str">
         <f>"create table "&amp;C52&amp;"("&amp;G52&amp;");"</f>
-        <v>create table t_url(n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,);</v>
+        <v>create table t_url(n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,s_title text );</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2545,169 +2917,1054 @@
     </row>
     <row r="60" spans="1:8">
       <c r="D60" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D60:D124" si="11">IF(C60&lt;&gt;"",IF(LEFT(C60,2)="n_","integer", IF(LEFT(C60,2)="s_","text", IF(LEFT(C60,2)="r_","real",""))),"")</f>
         <v/>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E60:E124" si="12">IF(A60="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <f t="shared" ref="F60:F124" si="13">IF(AND(C60&lt;&gt;"",D60&lt;&gt;""),C60&amp;" "&amp;D60&amp;" "&amp;E60&amp;IF(C61&lt;&gt;"",",",""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45">
+      <c r="A61" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G61" s="2" t="str">
+        <f>_xlfn.CONCAT(F63:F67)</f>
+        <v xml:space="preserve">n_wordnameid integer PRIMARY KEY,s_wordname text ,s_wordtype text ,s_wikipediaurl text ,r_saliencescore real </v>
+      </c>
+      <c r="H61" s="2" t="str">
+        <f>"create table "&amp;C61&amp;"("&amp;G61&amp;");"</f>
+        <v>create table t_wordname(n_wordnameid integer PRIMARY KEY,s_wordname text ,s_wordtype text ,s_wikipediaurl text ,r_saliencescore real );</v>
       </c>
     </row>
     <row r="62" spans="1:8">
+      <c r="A62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:8">
+      <c r="A63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>integer</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>PRIMARY KEY</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>n_wordnameid integer PRIMARY KEY,</v>
       </c>
     </row>
     <row r="64" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>text</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="4:6">
+        <f t="shared" si="13"/>
+        <v>s_wordname text ,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>text</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="4:6">
+        <f t="shared" si="13"/>
+        <v>s_wordtype text ,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>text</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="4:6">
+        <f t="shared" si="13"/>
+        <v>s_wikipediaurl text ,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>real</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="4:6">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">r_saliencescore real </v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="D68" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E68" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="4:6">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="30">
+      <c r="A69" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="4:6">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G69" s="2" t="str">
+        <f>_xlfn.CONCAT(F71:F73)</f>
+        <v xml:space="preserve">n_tweetid integer ,n_wordnameid integer ,n_count integer </v>
+      </c>
+      <c r="H69" s="2" t="str">
+        <f>"create table "&amp;C69&amp;"("&amp;G69&amp;");"</f>
+        <v>create table t_tweetwordname(n_tweetid integer ,n_wordnameid integer ,n_count integer );</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="4:6">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E71" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+        <f t="shared" si="11"/>
+        <v>integer</v>
+      </c>
+      <c r="E71" s="7"/>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
+        <v>n_tweetid integer ,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>integer</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>n_wordnameid integer ,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>integer</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">n_count integer </v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30">
+      <c r="A75" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G75" s="2" t="str">
+        <f>_xlfn.CONCAT(F77:F79)</f>
+        <v xml:space="preserve">n_wordnameid integer ,n_linkedurlid integer ,n_count integer </v>
+      </c>
+      <c r="H75" s="2" t="str">
+        <f>"create table "&amp;C75&amp;"("&amp;G75&amp;");"</f>
+        <v>create table t_urlwordname(n_wordnameid integer ,n_linkedurlid integer ,n_count integer );</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>integer</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>n_wordnameid integer ,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>integer</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>n_linkedurlid integer ,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>integer</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">n_count integer </v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="4:6">
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="4:6">
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="4:6">
+      <c r="D89" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="4:6">
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="4:6">
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="4:6">
+      <c r="D92" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="4:6">
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="4:6">
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="D95" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="4:6">
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="4:6">
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="4:6">
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="4:6">
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="4:6">
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="4:6">
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="4:6">
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="4:6">
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="4:6">
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="4:6">
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="4:6">
+      <c r="D111" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="4:6">
+      <c r="D112" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="4:6">
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="4:6">
+      <c r="D114" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="4:6">
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="4:6">
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="D118" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E118" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="4:6">
+      <c r="D119" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E119" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="4:6">
+      <c r="D120" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E120" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="D121" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E121" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="4:6">
+      <c r="D122" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E122" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F122" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="4:6">
+      <c r="D123" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E123" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F123" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="4:6">
+      <c r="D124" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E124" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2718,49 +3975,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7183AD2-A92D-4044-800C-C5FC7E152021}">
-  <dimension ref="B2:B8"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/docments/DB設計.xlsx
+++ b/docments/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\Documents\eclipse_workspace\python_20200415\TwitterAPIStudy\docments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8324C4FF-FA52-4B7C-BEBA-600FF1DC0DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98906E29-13A9-42A1-8BB6-21FE362396D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="118">
   <si>
     <t>トレンドワード</t>
     <phoneticPr fontId="1"/>
@@ -645,6 +645,17 @@
   </si>
   <si>
     <t>delete from t_urlwordname;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_contents</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1021,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46895ADB-0A83-428E-8D2B-02ED025D5599}">
   <dimension ref="B2:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:J29"/>
+    <sheetView topLeftCell="K2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23:AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1461,6 +1472,14 @@
         <v>83</v>
       </c>
     </row>
+    <row r="23" spans="2:28">
+      <c r="AA23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="25" spans="2:28">
       <c r="B25" s="4" t="s">
         <v>87</v>
@@ -1613,7 +1632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814CEF6-7AC1-4688-84BF-A3054AF83CD9}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
@@ -1666,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6BF05C-FEC3-47D8-BF06-9B4E2CB4BE46}">
-  <dimension ref="A2:I124"/>
+  <dimension ref="A2:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2737,7 +2758,7 @@
         <v/>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" ref="F51:F59" si="10">IF(AND(C51&lt;&gt;"",D51&lt;&gt;""),C51&amp;" "&amp;D51&amp;" "&amp;E51&amp;IF(C52&lt;&gt;"",",",""),"")</f>
+        <f t="shared" ref="F51:F58" si="10">IF(AND(C51&lt;&gt;"",D51&lt;&gt;""),C51&amp;" "&amp;D51&amp;" "&amp;E51&amp;IF(C52&lt;&gt;"",",",""),"")</f>
         <v/>
       </c>
     </row>
@@ -2762,12 +2783,12 @@
         <v/>
       </c>
       <c r="G52" s="2" t="str">
-        <f>_xlfn.CONCAT(F54:F59)</f>
-        <v xml:space="preserve">n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,s_title text </v>
+        <f>_xlfn.CONCAT(F54:F60)</f>
+        <v xml:space="preserve">n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,s_title text ,s_contents text </v>
       </c>
       <c r="H52" s="2" t="str">
         <f>"create table "&amp;C52&amp;"("&amp;G52&amp;");"</f>
-        <v>create table t_url(n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,s_title text );</v>
+        <v>create table t_url(n_linkedurlid integer PRIMARY KEY,s_linkedurl text ,r_sentimentscore real ,r_sentimentsmagnitude real ,n_validstrcount integer ,s_title text ,s_contents text );</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2823,15 +2844,15 @@
         <v>60</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D55:D60" si="11">IF(C55&lt;&gt;"",IF(LEFT(C55,2)="n_","integer", IF(LEFT(C55,2)="s_","text", IF(LEFT(C55,2)="r_","real",""))),"")</f>
         <v>text</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E55:E60" si="12">IF(A55="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F55:F60" si="13">IF(AND(C55&lt;&gt;"",D55&lt;&gt;""),C55&amp;" "&amp;D55&amp;" "&amp;E55&amp;IF(C56&lt;&gt;"",",",""),"")</f>
         <v>s_linkedurl text ,</v>
       </c>
     </row>
@@ -2843,15 +2864,15 @@
         <v>79</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>real</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>r_sentimentscore real ,</v>
       </c>
     </row>
@@ -2863,15 +2884,15 @@
         <v>80</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>real</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>r_sentimentsmagnitude real ,</v>
       </c>
     </row>
@@ -2883,15 +2904,15 @@
         <v>81</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>integer</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>n_validstrcount integer ,</v>
       </c>
     </row>
@@ -2903,1068 +2924,1103 @@
         <v>83</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>text</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">s_title text </v>
+        <f t="shared" si="13"/>
+        <v>s_title text ,</v>
       </c>
     </row>
     <row r="60" spans="1:8">
+      <c r="B60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" ref="D60:D124" si="11">IF(C60&lt;&gt;"",IF(LEFT(C60,2)="n_","integer", IF(LEFT(C60,2)="s_","text", IF(LEFT(C60,2)="r_","real",""))),"")</f>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>text</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" ref="E60:E124" si="12">IF(A60="PK","PRIMARY KEY","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" ref="F60:F124" si="13">IF(AND(C60&lt;&gt;"",D60&lt;&gt;""),C60&amp;" "&amp;D60&amp;" "&amp;E60&amp;IF(C61&lt;&gt;"",",",""),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="45">
-      <c r="A61" s="4" t="s">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">s_contents text </v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="D61" s="1" t="str">
+        <f t="shared" ref="D61:D123" si="14">IF(C61&lt;&gt;"",IF(LEFT(C61,2)="n_","integer", IF(LEFT(C61,2)="s_","text", IF(LEFT(C61,2)="r_","real",""))),"")</f>
+        <v/>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f t="shared" ref="E61:E123" si="15">IF(A61="PK","PRIMARY KEY","")</f>
+        <v/>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" ref="F61:F123" si="16">IF(AND(C61&lt;&gt;"",D61&lt;&gt;""),C61&amp;" "&amp;D61&amp;" "&amp;E61&amp;IF(C62&lt;&gt;"",",",""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45">
+      <c r="A62" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E61" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G61" s="2" t="str">
-        <f>_xlfn.CONCAT(F63:F67)</f>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G62" s="2" t="str">
+        <f>_xlfn.CONCAT(F64:F68)</f>
         <v xml:space="preserve">n_wordnameid integer PRIMARY KEY,s_wordname text ,s_wordtype text ,s_wikipediaurl text ,r_saliencescore real </v>
       </c>
-      <c r="H61" s="2" t="str">
-        <f>"create table "&amp;C61&amp;"("&amp;G61&amp;");"</f>
+      <c r="H62" s="2" t="str">
+        <f>"create table "&amp;C62&amp;"("&amp;G62&amp;");"</f>
         <v>create table t_wordname(n_wordnameid integer PRIMARY KEY,s_wordname text ,s_wordtype text ,s_wikipediaurl text ,r_saliencescore real );</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E62" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F62" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>integer</v>
       </c>
-      <c r="E63" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="E64" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>PRIMARY KEY</v>
       </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="13"/>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>n_wordnameid integer PRIMARY KEY,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>text</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F64" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>s_wordname text ,</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>text</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>s_wordtype text ,</v>
+        <f t="shared" si="16"/>
+        <v>s_wordname text ,</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>text</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>s_wikipediaurl text ,</v>
+        <f t="shared" si="16"/>
+        <v>s_wordtype text ,</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>text</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>s_wikipediaurl text ,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>real</v>
       </c>
-      <c r="E67" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F67" s="1" t="str">
-        <f t="shared" si="13"/>
+      <c r="E68" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">r_saliencescore real </v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="D68" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E68" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F68" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="30">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:9">
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30">
+      <c r="A70" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B69"/>
-      <c r="C69" s="4" t="s">
+      <c r="B70"/>
+      <c r="C70" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E69" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F69" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G69" s="2" t="str">
-        <f>_xlfn.CONCAT(F71:F73)</f>
-        <v xml:space="preserve">n_tweetid integer ,n_wordnameid integer ,n_count integer </v>
-      </c>
-      <c r="H69" s="2" t="str">
-        <f>"create table "&amp;C69&amp;"("&amp;G69&amp;");"</f>
-        <v>create table t_tweetwordname(n_tweetid integer ,n_wordnameid integer ,n_count integer );</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G70" s="2" t="str">
+        <f>_xlfn.CONCAT(F72:F74)</f>
+        <v xml:space="preserve">n_tweetid integer PRIMARY KEY,n_wordnameid integer PRIMARY KEY,n_count integer </v>
+      </c>
+      <c r="H70" s="2" t="str">
+        <f>"create table "&amp;C70&amp;"("&amp;G70&amp;");"</f>
+        <v>create table t_tweetwordname(n_tweetid integer PRIMARY KEY,n_wordnameid integer PRIMARY KEY,n_count integer );</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F70" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>integer</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>n_tweetid integer ,</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="5" t="s">
+      <c r="E72" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>n_tweetid integer PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>integer</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>n_wordnameid integer ,</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5" t="s">
+      <c r="E73" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>n_wordnameid integer PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>integer</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="1" t="str">
-        <f t="shared" si="13"/>
+      <c r="E74" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">n_count integer </v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="D74" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E74" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F74" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:9">
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30">
+      <c r="A76" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B75"/>
-      <c r="C75" s="4" t="s">
+      <c r="B76"/>
+      <c r="C76" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E75" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F75" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G75" s="2" t="str">
-        <f>_xlfn.CONCAT(F77:F79)</f>
-        <v xml:space="preserve">n_wordnameid integer ,n_linkedurlid integer ,n_count integer </v>
-      </c>
-      <c r="H75" s="2" t="str">
-        <f>"create table "&amp;C75&amp;"("&amp;G75&amp;");"</f>
-        <v>create table t_urlwordname(n_wordnameid integer ,n_linkedurlid integer ,n_count integer );</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G76" s="2" t="str">
+        <f>_xlfn.CONCAT(F78:F80)</f>
+        <v xml:space="preserve">n_wordnameid integer PRIMARY KEY,n_linkedurlid integer PRIMARY KEY,n_count integer </v>
+      </c>
+      <c r="H76" s="2" t="str">
+        <f>"create table "&amp;C76&amp;"("&amp;G76&amp;");"</f>
+        <v>create table t_urlwordname(n_wordnameid integer PRIMARY KEY,n_linkedurlid integer PRIMARY KEY,n_count integer );</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E76" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F76" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>integer</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>n_wordnameid integer ,</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="5" t="s">
+      <c r="E78" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>n_wordnameid integer PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D78" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>integer</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>n_linkedurlid integer ,</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="B79" s="5" t="s">
+      <c r="E79" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>PRIMARY KEY</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>n_linkedurlid integer PRIMARY KEY,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>integer</v>
       </c>
-      <c r="E79" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F79" s="1" t="str">
-        <f t="shared" si="13"/>
+      <c r="E80" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">n_count integer </v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E80" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F80" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
       </c>
     </row>
     <row r="81" spans="4:6">
       <c r="D81" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E81" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="4:6">
       <c r="D82" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E82" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="4:6">
       <c r="D83" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="4:6">
       <c r="D84" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E84" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="4:6">
       <c r="D85" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E85" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="4:6">
       <c r="D86" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E86" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="4:6">
       <c r="D87" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E87" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="4:6">
       <c r="D88" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E88" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="4:6">
       <c r="D89" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E89" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="4:6">
       <c r="D90" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E90" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="4:6">
       <c r="D91" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E91" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="4:6">
       <c r="D92" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E92" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="4:6">
       <c r="D93" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E93" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="4:6">
       <c r="D94" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E94" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="4:6">
       <c r="D95" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E95" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="4:6">
       <c r="D96" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E96" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="4:6">
       <c r="D97" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E97" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="4:6">
       <c r="D98" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E98" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F98" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="4:6">
       <c r="D99" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E99" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F99" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="4:6">
       <c r="D100" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E100" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F100" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="4:6">
       <c r="D101" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E101" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F101" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="4:6">
       <c r="D102" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E102" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F102" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="4:6">
       <c r="D103" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E103" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="4:6">
       <c r="D104" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E104" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="4:6">
       <c r="D105" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E105" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F105" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="4:6">
       <c r="D106" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E106" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F106" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="4:6">
       <c r="D107" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E107" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F107" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="4:6">
       <c r="D108" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E108" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F108" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="4:6">
       <c r="D109" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E109" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="4:6">
       <c r="D110" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E110" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="4:6">
       <c r="D111" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E111" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="4:6">
       <c r="D112" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E112" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E113" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F113" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="4:6">
       <c r="D114" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E114" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F114" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="4:6">
       <c r="D115" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E115" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F115" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="D116" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E116" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F116" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="4:6">
       <c r="D117" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E117" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F117" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="4:6">
       <c r="D118" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E118" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F118" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="D119" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E119" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F119" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="4:6">
       <c r="D120" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E120" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F120" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="D121" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E121" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F121" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="4:6">
       <c r="D122" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E122" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F122" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="4:6">
       <c r="D123" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="E123" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F123" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="4:6">
       <c r="D124" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D61:D125" si="17">IF(C124&lt;&gt;"",IF(LEFT(C124,2)="n_","integer", IF(LEFT(C124,2)="s_","text", IF(LEFT(C124,2)="r_","real",""))),"")</f>
         <v/>
       </c>
       <c r="E124" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E61:E125" si="18">IF(A124="PK","PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="F124" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F61:F125" si="19">IF(AND(C124&lt;&gt;"",D124&lt;&gt;""),C124&amp;" "&amp;D124&amp;" "&amp;E124&amp;IF(C125&lt;&gt;"",",",""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="4:6">
+      <c r="D125" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="E125" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F125" s="1" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -3979,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7183AD2-A92D-4044-800C-C5FC7E152021}">
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
